--- a/B.xlsx
+++ b/B.xlsx
@@ -393,21 +393,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="43.7109375" customWidth="1"/>
-    <col min="2" max="2" width="49.7109375" customWidth="1"/>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -444,158 +444,158 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="str">
-        <v>COMP06040 OBJECT ORIENTED PROGRAMMING</v>
+        <v>COMP07020 DATABASE MANAGEMENT SYSTEMS</v>
       </c>
       <c r="B2" s="2" t="str">
-        <v>KSOFG3 OBJECT ORIENTED PROGRAMMING/L</v>
+        <v>KSOFG3 DATABASE MANAGEMENT SYSTEMS Gr B/P</v>
       </c>
       <c r="D2" s="2" t="str">
-        <v>Wednesday</v>
+        <v>Thursday</v>
       </c>
       <c r="E2" s="2" t="str">
-        <v>14:00-16:00</v>
+        <v>12:00-14:00</v>
       </c>
       <c r="F2" s="2" t="str">
+        <v>12:00</v>
+      </c>
+      <c r="G2" s="2" t="str">
         <v>14:00</v>
-      </c>
-      <c r="G2" s="2" t="str">
-        <v>16:00</v>
       </c>
       <c r="H2" s="2" t="str">
         <v xml:space="preserve"> 2h</v>
       </c>
       <c r="I2" s="2" t="str">
-        <v>4-9, 11-17</v>
+        <v>22-31, 34-36</v>
       </c>
       <c r="J2" s="2" t="str">
-        <v>0903</v>
+        <v>0484 CR1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="str">
-        <v>COMP06040 OBJECT ORIENTED PROGRAMMING</v>
+        <v>COMP07020 DATABASE MANAGEMENT SYSTEMS</v>
       </c>
       <c r="B3" s="2" t="str">
-        <v>KSOFG3 OBJECT ORIENTED PROGRAMMING/L</v>
+        <v>KSOFG3/KCDMG3 DATABASE MANAGEMENT SYSTEMS/L</v>
       </c>
       <c r="D3" s="2" t="str">
-        <v>Thursday</v>
+        <v>Monday</v>
       </c>
       <c r="E3" s="2" t="str">
-        <v>12:00-13:00</v>
+        <v>10:00-11:00</v>
       </c>
       <c r="F3" s="2" t="str">
-        <v>12:00</v>
+        <v>10:00</v>
       </c>
       <c r="G3" s="2" t="str">
-        <v>13:00</v>
+        <v>11:00</v>
       </c>
       <c r="H3" s="2" t="str">
         <v xml:space="preserve"> 1h</v>
       </c>
       <c r="I3" s="2" t="str">
-        <v>4-9, 11-17</v>
+        <v>22-31, 34-36</v>
       </c>
       <c r="J3" s="2" t="str">
-        <v>0996</v>
+        <v>0941</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="str">
-        <v>COMP07019 SOFTWARE QUALITY MANAGEMENT</v>
+        <v>COMP07020 DATABASE MANAGEMENT SYSTEMS</v>
       </c>
       <c r="B4" s="2" t="str">
-        <v>KCDMG3/KSOFG3 SOFTWARE QUALITY MANAGEMENT/L</v>
+        <v>KSOFG3/KCDMG3 DATABASE MANAGEMENT SYSTEMS/L</v>
       </c>
       <c r="D4" s="2" t="str">
-        <v>Tuesday</v>
+        <v>Wednesday</v>
       </c>
       <c r="E4" s="2" t="str">
-        <v>16:00-17:00</v>
+        <v>13:00-14:00</v>
       </c>
       <c r="F4" s="2" t="str">
-        <v>16:00</v>
+        <v>13:00</v>
       </c>
       <c r="G4" s="2" t="str">
-        <v>17:00</v>
+        <v>14:00</v>
       </c>
       <c r="H4" s="2" t="str">
         <v xml:space="preserve"> 1h</v>
       </c>
       <c r="I4" s="2" t="str">
-        <v>4-9, 11-17</v>
+        <v>22-31, 34-36</v>
       </c>
       <c r="J4" s="2" t="str">
-        <v>0941</v>
+        <v>0996</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
-        <v>COMP07019 SOFTWARE QUALITY MANAGEMENT</v>
+        <v>COMP07029 MOBILE APPLICATIONS DEVELOPMENT 2</v>
       </c>
       <c r="B5" s="2" t="str">
-        <v>KCDMG3/KSOFG3 SOFTWARE QUALITY MANAGEMENT/L</v>
+        <v>KSOFG3 MOBILE APPLICATIONS DEVELOPMENT 2 Gr B/P</v>
       </c>
       <c r="D5" s="2" t="str">
-        <v>Wednesday</v>
+        <v>Thursday</v>
       </c>
       <c r="E5" s="2" t="str">
-        <v>16:00-17:00</v>
+        <v>09:00-11:00</v>
       </c>
       <c r="F5" s="2" t="str">
-        <v>16:00</v>
+        <v>09:00</v>
       </c>
       <c r="G5" s="2" t="str">
-        <v>17:00</v>
+        <v>11:00</v>
       </c>
       <c r="H5" s="2" t="str">
-        <v xml:space="preserve"> 1h</v>
+        <v xml:space="preserve"> 2h</v>
       </c>
       <c r="I5" s="2" t="str">
-        <v>4-9, 11-17</v>
+        <v>22-31, 34-36</v>
       </c>
       <c r="J5" s="2" t="str">
-        <v>0995</v>
+        <v>0470 Computing Practical Lab (BYOD)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="str">
-        <v>COMP07019 SOFTWARE QUALITY MANAGEMENT</v>
+        <v>COMP07029 MOBILE APPLICATIONS DEVELOPMENT 2</v>
       </c>
       <c r="B6" s="2" t="str">
-        <v>KCDMG3/KSOFG3 SOFTWARE QUALITY MANAGEMENT/L</v>
+        <v>KSOFG3 MOBILE APPLICATIONS DEVELOPMENT 2/L</v>
       </c>
       <c r="D6" s="2" t="str">
-        <v>Thursday</v>
+        <v>Monday</v>
       </c>
       <c r="E6" s="2" t="str">
-        <v>14:00-15:00</v>
+        <v>12:00-14:00</v>
       </c>
       <c r="F6" s="2" t="str">
+        <v>12:00</v>
+      </c>
+      <c r="G6" s="2" t="str">
         <v>14:00</v>
       </c>
-      <c r="G6" s="2" t="str">
-        <v>15:00</v>
-      </c>
       <c r="H6" s="2" t="str">
-        <v xml:space="preserve"> 1h</v>
+        <v xml:space="preserve"> 2h</v>
       </c>
       <c r="I6" s="2" t="str">
-        <v>4-9, 11-17</v>
+        <v>22-31, 34-36</v>
       </c>
       <c r="J6" s="2" t="str">
-        <v>0903</v>
+        <v>0996</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="str">
-        <v>COMP07027 GRAPHICS PROGRAMMING</v>
+        <v>COMP07030 PROFESSIONAL PRACTICE IN IT</v>
       </c>
       <c r="B7" s="2" t="str">
-        <v>KSOFG3 GRAPHICS PROGRAMMING Gr B/P</v>
+        <v>KSOFG3 GRP B PROFESSIONAL PRACTICE IN IT/P</v>
       </c>
       <c r="D7" s="2" t="str">
-        <v>Friday</v>
+        <v>Tuesday</v>
       </c>
       <c r="E7" s="2" t="str">
         <v>09:00-11:00</v>
@@ -610,36 +610,36 @@
         <v xml:space="preserve"> 2h</v>
       </c>
       <c r="I7" s="2" t="str">
-        <v>4-9, 11-17</v>
+        <v>22-31, 34-36</v>
       </c>
       <c r="J7" s="2" t="str">
-        <v>0483 CR2</v>
+        <v>0470 Computing Practical Lab (BYOD)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="str">
-        <v>COMP07027 GRAPHICS PROGRAMMING</v>
+        <v>COMP07030 PROFESSIONAL PRACTICE IN IT</v>
       </c>
       <c r="B8" s="2" t="str">
-        <v>KSOFG3 GRAPHICS PROGRAMMING/L</v>
+        <v>KSOFG3 PROFESSIONAL PRACTICE IN IT/L</v>
       </c>
       <c r="D8" s="2" t="str">
-        <v>Monday</v>
+        <v>Wednesday</v>
       </c>
       <c r="E8" s="2" t="str">
-        <v>13:00-14:00</v>
+        <v>12:00-13:00</v>
       </c>
       <c r="F8" s="2" t="str">
+        <v>12:00</v>
+      </c>
+      <c r="G8" s="2" t="str">
         <v>13:00</v>
-      </c>
-      <c r="G8" s="2" t="str">
-        <v>14:00</v>
       </c>
       <c r="H8" s="2" t="str">
         <v xml:space="preserve"> 1h</v>
       </c>
       <c r="I8" s="2" t="str">
-        <v>4-9, 11-17</v>
+        <v>22-31, 34-36</v>
       </c>
       <c r="J8" s="2" t="str">
         <v>0996</v>
@@ -647,144 +647,144 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="str">
-        <v>COMP07027 GRAPHICS PROGRAMMING</v>
+        <v>COMP07030 PROFESSIONAL PRACTICE IN IT</v>
       </c>
       <c r="B9" s="2" t="str">
-        <v>KSOFG3 GRAPHICS PROGRAMMING/L</v>
+        <v>KSOFG3 PROFESSIONAL PRACTICE IN IT/L</v>
       </c>
       <c r="D9" s="2" t="str">
-        <v>Tuesday</v>
+        <v>Wednesday</v>
       </c>
       <c r="E9" s="2" t="str">
-        <v>15:00-16:00</v>
+        <v>09:00-10:00</v>
       </c>
       <c r="F9" s="2" t="str">
-        <v>15:00</v>
+        <v>09:00</v>
       </c>
       <c r="G9" s="2" t="str">
-        <v>16:00</v>
+        <v>10:00</v>
       </c>
       <c r="H9" s="2" t="str">
         <v xml:space="preserve"> 1h</v>
       </c>
       <c r="I9" s="2" t="str">
-        <v>4-9, 11-17</v>
+        <v>22-31, 34-36</v>
       </c>
       <c r="J9" s="2" t="str">
-        <v>0941</v>
+        <v>0208</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="str">
-        <v>COMP07048 DATA REPRESENTATION AND QUERYING</v>
+        <v>COMP07050 GRAPH THEORY</v>
       </c>
       <c r="B10" s="2" t="str">
-        <v>KSOFG3 DATA REPRESENTATION AND QUERYING Gr B/P</v>
+        <v>KSOFG3 GRAPH THEORY Gr B/P</v>
       </c>
       <c r="D10" s="2" t="str">
-        <v>Friday</v>
+        <v>Tuesday</v>
       </c>
       <c r="E10" s="2" t="str">
-        <v>11:00-13:00</v>
+        <v>12:00-13:00</v>
       </c>
       <c r="F10" s="2" t="str">
-        <v>11:00</v>
+        <v>12:00</v>
       </c>
       <c r="G10" s="2" t="str">
         <v>13:00</v>
       </c>
       <c r="H10" s="2" t="str">
-        <v xml:space="preserve"> 2h</v>
+        <v xml:space="preserve"> 1h</v>
       </c>
       <c r="I10" s="2" t="str">
-        <v>4-9, 11-17</v>
+        <v>22-31, 34-36</v>
       </c>
       <c r="J10" s="2" t="str">
-        <v>0480 CR7</v>
+        <v>0436 CR5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="str">
-        <v>COMP07048 DATA REPRESENTATION AND QUERYING</v>
+        <v>COMP07050 GRAPH THEORY</v>
       </c>
       <c r="B11" s="2" t="str">
-        <v>KSOFG3/KCDMG4 DATA REPRESENTATION AND QUERYING/L</v>
+        <v>KSOFG3 GRAPH THEORY/L</v>
       </c>
       <c r="D11" s="2" t="str">
-        <v>Thursday</v>
+        <v>Wednesday</v>
       </c>
       <c r="E11" s="2" t="str">
-        <v>15:00-16:00</v>
+        <v>11:00-12:00</v>
       </c>
       <c r="F11" s="2" t="str">
-        <v>15:00</v>
+        <v>11:00</v>
       </c>
       <c r="G11" s="2" t="str">
-        <v>16:00</v>
+        <v>12:00</v>
       </c>
       <c r="H11" s="2" t="str">
         <v xml:space="preserve"> 1h</v>
       </c>
       <c r="I11" s="2" t="str">
-        <v>4-9, 11-17</v>
+        <v>22-31, 34-36</v>
       </c>
       <c r="J11" s="2" t="str">
-        <v>0941</v>
+        <v>0940</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="str">
-        <v>COMP07080 DATA CENTRIC WEB APPLICATIONS</v>
+        <v>COMP07050 GRAPH THEORY</v>
       </c>
       <c r="B12" s="2" t="str">
-        <v>KSOFG3 DATA CENTRIC WEB APPLICATIONS Gr B/P</v>
+        <v>KSOFG3 GRAPH THEORY/L</v>
       </c>
       <c r="D12" s="2" t="str">
         <v>Tuesday</v>
       </c>
       <c r="E12" s="2" t="str">
-        <v>09:00-11:00</v>
+        <v>13:00-14:00</v>
       </c>
       <c r="F12" s="2" t="str">
-        <v>09:00</v>
+        <v>13:00</v>
       </c>
       <c r="G12" s="2" t="str">
-        <v>11:00</v>
+        <v>14:00</v>
       </c>
       <c r="H12" s="2" t="str">
-        <v xml:space="preserve"> 2h</v>
+        <v xml:space="preserve"> 1h</v>
       </c>
       <c r="I12" s="2" t="str">
-        <v>4-9, 11-17</v>
+        <v>22-31, 34-36</v>
       </c>
       <c r="J12" s="2" t="str">
-        <v>0480 CR7</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="str">
-        <v>COMP07080 DATA CENTRIC WEB APPLICATIONS</v>
+        <v>COMP07081 ADVANCED DATA CENTRIC WEB APPLICATIONS</v>
       </c>
       <c r="B13" s="2" t="str">
-        <v>KSOFG3 DATA CENTRIC WEB APPLICATIONS Gr B/P</v>
+        <v>KSOFG3 ADVANCED DATA CENTRIC WEB APPLICATIONS Gr B/P</v>
       </c>
       <c r="D13" s="2" t="str">
-        <v>Wednesday</v>
+        <v>Tuesday</v>
       </c>
       <c r="E13" s="2" t="str">
-        <v>11:00-12:00</v>
+        <v>15:00-17:00</v>
       </c>
       <c r="F13" s="2" t="str">
-        <v>11:00</v>
+        <v>15:00</v>
       </c>
       <c r="G13" s="2" t="str">
-        <v>12:00</v>
+        <v>17:00</v>
       </c>
       <c r="H13" s="2" t="str">
-        <v xml:space="preserve"> 1h</v>
+        <v xml:space="preserve"> 2h</v>
       </c>
       <c r="I13" s="2" t="str">
-        <v>4-9, 11-17</v>
+        <v>22-31, 34-36</v>
       </c>
       <c r="J13" s="2" t="str">
         <v>0436 CR5</v>
@@ -792,57 +792,57 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="str">
-        <v>COMP07080 DATA CENTRIC WEB APPLICATIONS</v>
+        <v>COMP07081 ADVANCED DATA CENTRIC WEB APPLICATIONS</v>
       </c>
       <c r="B14" s="2" t="str">
-        <v>KSOFG3 DATA CENTRIC WEB APPLICATIONS/L</v>
+        <v>KSOFG3 ADVANCED DATA CENTRIC WEB APPLICATIONS/L</v>
       </c>
       <c r="D14" s="2" t="str">
-        <v>Wednesday</v>
+        <v>Monday</v>
       </c>
       <c r="E14" s="2" t="str">
-        <v>12:00-13:00</v>
+        <v>15:00-16:00</v>
       </c>
       <c r="F14" s="2" t="str">
-        <v>12:00</v>
+        <v>15:00</v>
       </c>
       <c r="G14" s="2" t="str">
-        <v>13:00</v>
+        <v>16:00</v>
       </c>
       <c r="H14" s="2" t="str">
         <v xml:space="preserve"> 1h</v>
       </c>
       <c r="I14" s="2" t="str">
-        <v>4-9, 11-17</v>
+        <v>22-31, 34-36</v>
       </c>
       <c r="J14" s="2" t="str">
-        <v>0995</v>
+        <v>0996</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="str">
-        <v>COMP07082 OPERATING SYSTEMS</v>
+        <v>COMP08034 SOFTWARE TESTING</v>
       </c>
       <c r="B15" s="2" t="str">
-        <v>KSOFG3 OPERATING SYSTEMS 1 Gr B/P</v>
+        <v>KSOFG3 SOFTWARE TESTING Gr B/P</v>
       </c>
       <c r="D15" s="2" t="str">
-        <v>Tuesday</v>
+        <v>Monday</v>
       </c>
       <c r="E15" s="2" t="str">
-        <v>11:00-13:00</v>
+        <v>16:00-18:00</v>
       </c>
       <c r="F15" s="2" t="str">
-        <v>11:00</v>
+        <v>16:00</v>
       </c>
       <c r="G15" s="2" t="str">
-        <v>13:00</v>
+        <v>18:00</v>
       </c>
       <c r="H15" s="2" t="str">
         <v xml:space="preserve"> 2h</v>
       </c>
       <c r="I15" s="2" t="str">
-        <v>4-9, 11-17</v>
+        <v>22-31, 34-36</v>
       </c>
       <c r="J15" s="2" t="str">
         <v>0479 CR8</v>
@@ -850,89 +850,31 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="str">
-        <v>COMP07082 OPERATING SYSTEMS</v>
+        <v>COMP08034 SOFTWARE TESTING</v>
       </c>
       <c r="B16" s="2" t="str">
-        <v>KSOFG3 OPERATING SYSTEMS Gr B/T</v>
+        <v>KSOFG3 SOFTWARE TESTING/L</v>
       </c>
       <c r="D16" s="2" t="str">
-        <v>Thursday</v>
+        <v>Wednesday</v>
       </c>
       <c r="E16" s="2" t="str">
-        <v>11:00-12:00</v>
+        <v>15:00-16:00</v>
       </c>
       <c r="F16" s="2" t="str">
-        <v>11:00</v>
+        <v>15:00</v>
       </c>
       <c r="G16" s="2" t="str">
-        <v>12:00</v>
+        <v>16:00</v>
       </c>
       <c r="H16" s="2" t="str">
         <v xml:space="preserve"> 1h</v>
       </c>
       <c r="I16" s="2" t="str">
-        <v>4-9, 11-17</v>
+        <v>22-31, 34-36</v>
       </c>
       <c r="J16" s="2" t="str">
-        <v>0145</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="str">
-        <v>COMP07082 OPERATING SYSTEMS</v>
-      </c>
-      <c r="B17" s="2" t="str">
-        <v>KSOFG3 OPERATING SYSTEMS/L</v>
-      </c>
-      <c r="D17" s="2" t="str">
-        <v>Thursday</v>
-      </c>
-      <c r="E17" s="2" t="str">
-        <v>10:00-11:00</v>
-      </c>
-      <c r="F17" s="2" t="str">
-        <v>10:00</v>
-      </c>
-      <c r="G17" s="2" t="str">
-        <v>11:00</v>
-      </c>
-      <c r="H17" s="2" t="str">
-        <v xml:space="preserve"> 1h</v>
-      </c>
-      <c r="I17" s="2" t="str">
-        <v>4-9, 11-17</v>
-      </c>
-      <c r="J17" s="2" t="str">
-        <v>0996</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="str">
-        <v>COMP07082 OPERATING SYSTEMS</v>
-      </c>
-      <c r="B18" s="2" t="str">
-        <v>KSOFG3 OPERATING SYSTEMS/L</v>
-      </c>
-      <c r="D18" s="2" t="str">
-        <v>Monday</v>
-      </c>
-      <c r="E18" s="2" t="str">
-        <v>14:00-15:00</v>
-      </c>
-      <c r="F18" s="2" t="str">
-        <v>14:00</v>
-      </c>
-      <c r="G18" s="2" t="str">
-        <v>15:00</v>
-      </c>
-      <c r="H18" s="2" t="str">
-        <v xml:space="preserve"> 1h</v>
-      </c>
-      <c r="I18" s="2" t="str">
-        <v>4-9, 11-17</v>
-      </c>
-      <c r="J18" s="2" t="str">
-        <v>0996</v>
+        <v>0939</v>
       </c>
     </row>
   </sheetData>
